--- a/BalanceSheet/CVNA_bal.xlsx
+++ b/BalanceSheet/CVNA_bal.xlsx
@@ -340,19 +340,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-65359000.0</v>
+        <v>1036000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-335186000.0</v>
+        <v>968000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>217238000.0</v>
+        <v>629000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-80014000.0</v>
+        <v>845000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-131099000.0</v>
+        <v>763000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>629798000.0</v>
@@ -988,19 +988,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-18316000.0</v>
+        <v>67000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>73220000.0</v>
+        <v>96000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>37455000.0</v>
+        <v>70000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1820000.0</v>
+        <v>56000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>32460000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>191598000.0</v>
